--- a/excel_routes/route_ATZ_MED_threats.xlsx
+++ b/excel_routes/route_ATZ_MED_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6033</v>
+        <v>6663</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>13145</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-7112</v>
+        <v>-6482</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>15</v>
@@ -646,30 +646,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9057</v>
+        <v>10198</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>13145</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-4088</v>
+        <v>-2947</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -691,30 +691,30 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9057</v>
+        <v>10198</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>13145</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-4088</v>
+        <v>-2947</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>10198</v>
+        <v>10903</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>13145</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2947</v>
+        <v>-2242</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>46</v>
@@ -757,9 +757,9 @@
       <c r="I6" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -781,30 +781,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>10198</v>
+        <v>11450</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>13145</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2947</v>
+        <v>-1695</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>10903</v>
+        <v>11450</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>13145</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2242</v>
+        <v>-1695</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>10694</v>
+        <v>11823</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>12100</v>
+        <v>13145</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1406</v>
+        <v>-1322</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5404</v>
+        <v>6033</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-6696</v>
+        <v>-6067</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>15</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1186,30 +1186,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5782</v>
+        <v>8175</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-6318</v>
+        <v>-3925</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,26 +1231,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>11823</v>
+        <v>5152</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-277</v>
+        <v>-6948</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,26 +1276,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>11823</v>
+        <v>5152</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-277</v>
+        <v>-6948</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,26 +1321,26 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>11823</v>
+        <v>6285</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-277</v>
+        <v>-5815</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1366,26 +1366,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5152</v>
+        <v>6285</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-6948</v>
+        <v>-5815</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,26 +1411,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>5152</v>
+        <v>9813</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-6948</v>
+        <v>-2287</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,27 +1446,27 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8679</v>
+        <v>10442</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-3421</v>
+        <v>-1658</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>40</v>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1505,22 +1505,22 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8679</v>
+        <v>5782</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-3421</v>
+        <v>-6318</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,26 +1546,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>11823</v>
+        <v>6285</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-277</v>
+        <v>-5815</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>10</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,30 +1591,30 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>11823</v>
+        <v>4900</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-277</v>
+        <v>-7200</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>7419</v>
+        <v>5404</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-4681</v>
+        <v>-6696</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>10311</v>
+        <v>9127</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1789</v>
+        <v>-2973</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>46</v>
@@ -1702,9 +1702,9 @@
       <c r="I27" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>11256</v>
+        <v>9127</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-844</v>
+        <v>-2973</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1747,9 +1747,9 @@
       <c r="I28" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>11256</v>
+        <v>9366</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-844</v>
+        <v>-2734</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>46</v>
@@ -1792,9 +1792,9 @@
       <c r="I29" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5404</v>
+        <v>10694</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-6696</v>
+        <v>-1406</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1851,36 +1851,36 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7293</v>
+        <v>3766</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-4807</v>
+        <v>-8334</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
@@ -1896,40 +1896,40 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7363</v>
+        <v>6915</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-4737</v>
+        <v>-5185</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,40 +1941,40 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-316</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7363</v>
+        <v>7905</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-4737</v>
+        <v>-4195</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,40 +1986,40 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7590</v>
+        <v>7905</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-4510</v>
+        <v>-4195</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,40 +2031,40 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>10694</v>
+        <v>7905</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1406</v>
+        <v>-4195</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>7905</v>
+        <v>9127</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4195</v>
+        <v>-2973</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2121,36 +2121,36 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>7905</v>
+        <v>3766</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-4195</v>
+        <v>-8334</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
@@ -2166,36 +2166,36 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>7905</v>
+        <v>3766</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-4195</v>
+        <v>-8334</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
@@ -2211,40 +2211,40 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-316</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>9127</v>
+        <v>6129</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-2973</v>
+        <v>-5971</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2266,26 +2266,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>3766</v>
+        <v>6915</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-8334</v>
+        <v>-5185</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J40" s="4" t="inlineStr">
         <is>
@@ -2311,26 +2311,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3766</v>
+        <v>6915</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-8334</v>
+        <v>-5185</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
@@ -2356,26 +2356,26 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>4522</v>
+        <v>7905</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-7578</v>
+        <v>-4195</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J42" s="4" t="inlineStr">
         <is>
@@ -2401,26 +2401,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>4522</v>
+        <v>7905</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-7578</v>
+        <v>-4195</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J43" s="4" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,26 +2491,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>7905</v>
+        <v>3766</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-4195</v>
+        <v>-8334</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J45" s="4" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,26 +2536,26 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>7905</v>
+        <v>4144</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-4195</v>
+        <v>-7956</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J46" s="4" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,30 +2581,30 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>7905</v>
+        <v>6129</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-4195</v>
+        <v>-5971</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2626,30 +2626,30 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>3766</v>
+        <v>6129</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-8334</v>
+        <v>-5971</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2671,30 +2671,30 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>4144</v>
+        <v>6129</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-7956</v>
+        <v>-5971</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2941,30 +2941,30 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>7905</v>
+        <v>8044</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-4195</v>
+        <v>-4056</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J55" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -2986,30 +2986,30 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>7905</v>
+        <v>8044</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-4195</v>
+        <v>-4056</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J56" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,26 +3031,26 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>7905</v>
+        <v>4774</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-4195</v>
+        <v>-7326</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J57" s="4" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,26 +3076,26 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>8044</v>
+        <v>5404</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-4056</v>
+        <v>-6696</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J58" s="3" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,30 +3121,30 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>8044</v>
+        <v>6915</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-4056</v>
+        <v>-5185</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3166,30 +3166,30 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>4774</v>
+        <v>7338</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-7326</v>
+        <v>-4762</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3211,26 +3211,26 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>5404</v>
+        <v>7338</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-6696</v>
+        <v>-4762</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3256,30 +3256,30 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>6915</v>
+        <v>7338</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-5185</v>
+        <v>-4762</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3301,30 +3301,30 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>7338</v>
+        <v>7905</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-4762</v>
+        <v>-4195</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3346,30 +3346,30 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>7338</v>
+        <v>7905</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-4762</v>
+        <v>-4195</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3391,30 +3391,30 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>7338</v>
+        <v>7905</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-4762</v>
+        <v>-4195</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -3436,30 +3436,30 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>7905</v>
+        <v>8044</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-4195</v>
+        <v>-4056</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J66" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3481,30 +3481,30 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>7905</v>
+        <v>8044</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-4195</v>
+        <v>-4056</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J67" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -3516,40 +3516,40 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>7905</v>
+        <v>7338</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-4195</v>
+        <v>-16528</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J68" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -3561,27 +3561,27 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>8044</v>
+        <v>7338</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-4056</v>
+        <v>-16528</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>23</v>
@@ -3592,9 +3592,9 @@
       <c r="I69" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J69" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,27 +3606,27 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>8044</v>
+        <v>7338</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-4056</v>
+        <v>-16528</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>23</v>
@@ -3637,9 +3637,9 @@
       <c r="I70" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3661,26 +3661,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>4522</v>
+        <v>7905</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-19344</v>
+        <v>-15961</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J71" s="5" t="inlineStr">
         <is>
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>5404</v>
+        <v>7905</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-18462</v>
+        <v>-15961</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J72" s="5" t="inlineStr">
         <is>
@@ -3751,26 +3751,26 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>7338</v>
+        <v>7905</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-16528</v>
+        <v>-15961</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J73" s="5" t="inlineStr">
         <is>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7338</v>
+        <v>8044</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-16528</v>
+        <v>-15822</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>23</v>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>7338</v>
+        <v>8044</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-16528</v>
+        <v>-15822</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>23</v>
@@ -3876,40 +3876,40 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>7905</v>
+        <v>3766</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-15961</v>
+        <v>-8334</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J76" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K76" s="2" t="inlineStr">
@@ -3921,40 +3921,40 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>7905</v>
+        <v>4144</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-15961</v>
+        <v>-7956</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J77" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K77" s="2" t="inlineStr">
@@ -3966,40 +3966,40 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>7905</v>
+        <v>6915</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-15961</v>
+        <v>-5185</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J78" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K78" s="2" t="inlineStr">
@@ -4011,40 +4011,40 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>8044</v>
+        <v>6915</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-15822</v>
+        <v>-5185</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J79" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K79" s="2" t="inlineStr">
@@ -4056,27 +4056,27 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>8044</v>
+        <v>7338</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-15822</v>
+        <v>-4762</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>23</v>
@@ -4087,9 +4087,9 @@
       <c r="I80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J80" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K80" s="2" t="inlineStr">
@@ -4111,30 +4111,30 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>3766</v>
+        <v>7338</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-8334</v>
+        <v>-4762</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K81" s="2" t="inlineStr">
@@ -4156,30 +4156,30 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>4144</v>
+        <v>7338</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-7956</v>
+        <v>-4762</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J82" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4201,26 +4201,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>6915</v>
+        <v>7905</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-5185</v>
+        <v>-4195</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J83" s="4" t="inlineStr">
         <is>
@@ -4246,26 +4246,26 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>6915</v>
+        <v>7905</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-5185</v>
+        <v>-4195</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J84" s="4" t="inlineStr">
         <is>
@@ -4291,30 +4291,30 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>7338</v>
+        <v>7905</v>
       </c>
       <c r="E85" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>-4762</v>
+        <v>-4195</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H85" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K85" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>7338</v>
+        <v>8044</v>
       </c>
       <c r="E86" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>-4762</v>
+        <v>-4056</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>23</v>
@@ -4381,17 +4381,17 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>7338</v>
+        <v>8044</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-4762</v>
+        <v>-4056</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>23</v>
@@ -4416,40 +4416,40 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>7905</v>
+        <v>5404</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-4195</v>
+        <v>-18462</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J88" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>15</v>
+      </c>
+      <c r="J88" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K88" s="2" t="inlineStr">
@@ -4461,40 +4461,40 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>7905</v>
+        <v>6915</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-4195</v>
+        <v>-16951</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J89" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J89" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K89" s="2" t="inlineStr">
@@ -4506,40 +4506,40 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>7905</v>
+        <v>7338</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-4195</v>
+        <v>-16528</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J90" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J90" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
@@ -4551,27 +4551,27 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>8044</v>
+        <v>7338</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>-4056</v>
+        <v>-16528</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>23</v>
@@ -4582,9 +4582,9 @@
       <c r="I91" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J91" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J91" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
@@ -4596,27 +4596,27 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>8044</v>
+        <v>7338</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>-4056</v>
+        <v>-16528</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>23</v>
@@ -4627,9 +4627,9 @@
       <c r="I92" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J92" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J92" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
@@ -4651,26 +4651,26 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>5404</v>
+        <v>7905</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>-18462</v>
+        <v>-15961</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J93" s="5" t="inlineStr">
         <is>
@@ -4696,26 +4696,26 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>6915</v>
+        <v>7905</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>-16951</v>
+        <v>-15961</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J94" s="5" t="inlineStr">
         <is>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>7338</v>
+        <v>8044</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>-16528</v>
+        <v>-15822</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>23</v>
@@ -4786,17 +4786,17 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>7338</v>
+        <v>8044</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>-16528</v>
+        <v>-15822</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>23</v>
@@ -4831,26 +4831,26 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>7338</v>
+        <v>9127</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>23866</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>-16528</v>
+        <v>-14739</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J97" s="5" t="inlineStr">
         <is>
@@ -4866,40 +4866,40 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>7905</v>
+        <v>3766</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>-15961</v>
+        <v>-8334</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H98" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J98" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K98" s="2" t="inlineStr">
@@ -4911,40 +4911,40 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>7905</v>
+        <v>4144</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>-15961</v>
+        <v>-7956</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H99" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J99" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>15</v>
+      </c>
+      <c r="J99" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K99" s="2" t="inlineStr">
@@ -4956,40 +4956,40 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>8044</v>
+        <v>6915</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-15822</v>
+        <v>-5185</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J100" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K100" s="2" t="inlineStr">
@@ -5001,40 +5001,40 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>8044</v>
+        <v>6915</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-15822</v>
+        <v>-5185</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-10</v>
+      </c>
+      <c r="J101" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K101" s="2" t="inlineStr">
@@ -5046,40 +5046,40 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>9127</v>
+        <v>7363</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>23866</v>
+        <v>12100</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-14739</v>
+        <v>-4737</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H102" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J102" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>7</v>
+      </c>
+      <c r="J102" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K102" s="2" t="inlineStr">
@@ -5101,26 +5101,26 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>3766</v>
+        <v>7905</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>-8334</v>
+        <v>-4195</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J103" s="4" t="inlineStr">
         <is>
@@ -5146,26 +5146,26 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>4144</v>
+        <v>9127</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>12100</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>-7956</v>
+        <v>-2973</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J104" s="4" t="inlineStr">
         <is>
@@ -5181,27 +5181,27 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>6915</v>
+        <v>8679</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>-5185</v>
+        <v>-15187</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>40</v>
@@ -5212,9 +5212,9 @@
       <c r="I105" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J105" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J105" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K105" s="2" t="inlineStr">
@@ -5226,40 +5226,40 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>6915</v>
+        <v>10311</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>-5185</v>
+        <v>-13555</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J106" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J106" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K106" s="2" t="inlineStr">
@@ -5271,40 +5271,40 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>7363</v>
+        <v>10694</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-4737</v>
+        <v>-13172</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J107" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-10</v>
+      </c>
+      <c r="J107" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K107" s="2" t="inlineStr">
@@ -5316,12 +5316,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>7905</v>
+        <v>11256</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-4195</v>
+        <v>-12610</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>46</v>
@@ -5347,9 +5347,9 @@
       <c r="I108" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J108" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J108" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K108" s="2" t="inlineStr">
@@ -5361,27 +5361,27 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>9127</v>
+        <v>11256</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>12100</v>
+        <v>23866</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-2973</v>
+        <v>-12610</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>46</v>
@@ -5392,12 +5392,237 @@
       <c r="I109" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J109" s="4" t="inlineStr">
+      <c r="J109" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>27-MAR-26</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>SM-963</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-693</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>15085</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>23866</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>-8781</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J110" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>27-MAR-26</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>SM-963</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-695</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>15085</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>23866</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>-8781</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J111" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>27-MAR-26</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>SM-963</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-677</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>15791</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>23866</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>-8075</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J112" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>27-MAR-26</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>SM-963</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-639</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>15791</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>23866</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>-8075</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J113" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>27-MAR-26</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>SM-963</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-675</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>18978</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>23866</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>-4888</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
-      <c r="K109" s="2" t="inlineStr">
+      <c r="K114" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_ATZ_MED_threats.xlsx
+++ b/excel_routes/route_ATZ_MED_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,36 +546,36 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>9051</v>
+        <v>8084</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9340</v>
+        <v>13228</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-289</v>
+        <v>-5144</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,36 +591,36 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>9051</v>
+        <v>8084</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9340</v>
+        <v>13228</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-289</v>
+        <v>-5144</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6644</v>
+        <v>8084</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-6452</v>
+        <v>-5144</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -691,26 +691,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6644</v>
+        <v>9096</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-6452</v>
+        <v>-4132</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>9051</v>
+        <v>10483</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-4045</v>
+        <v>-2745</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>46</v>
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>10860</v>
+        <v>11874</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-2236</v>
+        <v>-1354</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>46</v>
@@ -826,26 +826,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11418</v>
+        <v>11874</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1678</v>
+        <v>-1354</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>11789</v>
+        <v>11874</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1307</v>
+        <v>-1354</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>46</v>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>10-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>11789</v>
+        <v>10741</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>13096</v>
+        <v>12178</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1307</v>
+        <v>-1437</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>11789</v>
+        <v>10741</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>13096</v>
+        <v>13228</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-1307</v>
+        <v>-2487</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>25-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>10664</v>
+        <v>10741</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1389</v>
+        <v>-1437</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>40</v>
@@ -1041,27 +1041,27 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6644</v>
+        <v>5174</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-5409</v>
+        <v>-7004</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>15</v>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5137</v>
+        <v>5427</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-6916</v>
+        <v>-6751</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>15</v>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,26 +1141,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5137</v>
+        <v>8717</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-6916</v>
+        <v>-3461</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>8152</v>
+        <v>9223</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-3901</v>
+        <v>-2955</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>40</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,30 +1231,30 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>8152</v>
+        <v>11874</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-3901</v>
+        <v>-304</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-16</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>11789</v>
+        <v>11874</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-264</v>
+        <v>-304</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>46</v>
@@ -1311,36 +1311,36 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>04-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>11789</v>
+        <v>7325</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-264</v>
+        <v>-4853</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>11789</v>
+        <v>10356</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-264</v>
+        <v>-1822</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,26 +1411,26 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>5137</v>
+        <v>11305</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-6916</v>
+        <v>-873</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,26 +1456,26 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5137</v>
+        <v>11305</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-6916</v>
+        <v>-873</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8654</v>
+        <v>7325</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-3399</v>
+        <v>-4853</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>40</v>
@@ -1522,9 +1522,9 @@
       <c r="I23" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,30 +1546,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8654</v>
+        <v>7940</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-3399</v>
+        <v>-4238</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>11789</v>
+        <v>9167</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-264</v>
+        <v>-3011</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1612,9 +1612,9 @@
       <c r="I25" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>11789</v>
+        <v>9407</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-264</v>
+        <v>-2771</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1657,9 +1657,9 @@
       <c r="I26" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8654</v>
+        <v>3782</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-3399</v>
+        <v>-8396</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,30 +1726,30 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>8654</v>
+        <v>3782</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-3399</v>
+        <v>-8396</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>11016</v>
+        <v>6945</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1037</v>
+        <v>-5233</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>40</v>
@@ -1792,9 +1792,9 @@
       <c r="I29" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1816,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>4760</v>
+        <v>6945</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-7293</v>
+        <v>-5233</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="4" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,26 +1861,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7273</v>
+        <v>7940</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-4780</v>
+        <v>-4238</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J31" s="4" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,26 +1906,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-316</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7273</v>
+        <v>7940</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-4780</v>
+        <v>-4238</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J32" s="4" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,30 +1951,30 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>10664</v>
+        <v>7940</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1389</v>
+        <v>-4238</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,17 +1996,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>11224</v>
+        <v>7940</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-829</v>
+        <v>-4238</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>46</v>
@@ -2017,9 +2017,9 @@
       <c r="I34" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>9101</v>
+        <v>3782</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-2952</v>
+        <v>-8396</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,26 +2086,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>9101</v>
+        <v>4162</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-2952</v>
+        <v>-8016</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,26 +2131,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>9340</v>
+        <v>6945</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-2713</v>
+        <v>-5233</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
@@ -2166,36 +2166,36 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3755</v>
+        <v>6945</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-8298</v>
+        <v>-5233</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
@@ -2211,40 +2211,40 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>4509</v>
+        <v>7598</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-7544</v>
+        <v>-4580</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,27 +2256,27 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6112</v>
+        <v>7598</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-5941</v>
+        <v>-4580</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>23</v>
@@ -2301,27 +2301,27 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>6112</v>
+        <v>7598</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-5941</v>
+        <v>-4580</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>23</v>
@@ -2346,12 +2346,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2360,26 +2360,26 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>7343</v>
+        <v>7940</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-4710</v>
+        <v>-4238</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,12 +2391,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>7883</v>
+        <v>7940</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-4170</v>
+        <v>-4238</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>46</v>
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2446,26 +2446,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>3755</v>
+        <v>7940</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-8298</v>
+        <v>-4238</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J44" s="4" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2491,30 +2491,30 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>3755</v>
+        <v>8319</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-8298</v>
+        <v>-3859</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J45" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>6896</v>
+        <v>8319</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-5157</v>
+        <v>-3859</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -2581,30 +2581,30 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>6896</v>
+        <v>7598</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-5157</v>
+        <v>-4580</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -2626,30 +2626,30 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>7883</v>
+        <v>7598</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-4170</v>
+        <v>-4580</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -2671,30 +2671,30 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>7883</v>
+        <v>7598</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-4170</v>
+        <v>-4580</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J49" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>7883</v>
+        <v>7940</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-4170</v>
+        <v>-4238</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>46</v>
@@ -2751,7 +2751,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>7883</v>
+        <v>7940</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-4170</v>
+        <v>-4238</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>46</v>
@@ -2796,7 +2796,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -2806,26 +2806,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>3755</v>
+        <v>7940</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-8298</v>
+        <v>-4238</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J52" s="4" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -2851,30 +2851,30 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>4132</v>
+        <v>8319</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-7921</v>
+        <v>-3859</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -2896,30 +2896,30 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>4509</v>
+        <v>8319</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>12053</v>
+        <v>12178</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-7544</v>
+        <v>-3859</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
@@ -2931,12 +2931,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -2945,13 +2945,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>4509</v>
+        <v>4542</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-7544</v>
+        <v>-19478</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>20</v>
@@ -2962,9 +2962,9 @@
       <c r="I55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="J55" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
@@ -2976,40 +2976,40 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>6112</v>
+        <v>5427</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-5941</v>
+        <v>-18593</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J56" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
@@ -3021,12 +3021,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3035,13 +3035,13 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6112</v>
+        <v>6156</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-5941</v>
+        <v>-17864</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>23</v>
@@ -3052,9 +3052,9 @@
       <c r="I57" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
@@ -3066,12 +3066,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6112</v>
+        <v>6156</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-5941</v>
+        <v>-17864</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>23</v>
@@ -3097,9 +3097,9 @@
       <c r="I58" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J58" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J58" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K58" s="2" t="inlineStr">
@@ -3111,27 +3111,27 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>7318</v>
+        <v>7396</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-4735</v>
+        <v>-16624</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>23</v>
@@ -3142,9 +3142,9 @@
       <c r="I59" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J59" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
@@ -3156,27 +3156,27 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>7318</v>
+        <v>7598</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-4735</v>
+        <v>-16422</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>23</v>
@@ -3187,9 +3187,9 @@
       <c r="I60" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,27 +3201,27 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>7318</v>
+        <v>7598</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-4735</v>
+        <v>-16422</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>23</v>
@@ -3232,9 +3232,9 @@
       <c r="I61" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J61" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
@@ -3246,27 +3246,27 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>8021</v>
+        <v>7598</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-4032</v>
+        <v>-16422</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>23</v>
@@ -3277,9 +3277,9 @@
       <c r="I62" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J62" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
@@ -3291,27 +3291,27 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>8021</v>
+        <v>8319</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-4032</v>
+        <v>-15701</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>23</v>
@@ -3322,9 +3322,9 @@
       <c r="I63" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J63" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
@@ -3336,27 +3336,27 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>7318</v>
+        <v>8319</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-4735</v>
+        <v>-15701</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>23</v>
@@ -3367,9 +3367,9 @@
       <c r="I64" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J64" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J64" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
@@ -3381,40 +3381,40 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>7318</v>
+        <v>4921</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-4735</v>
+        <v>-19099</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
@@ -3426,40 +3426,40 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>7318</v>
+        <v>5427</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-4735</v>
+        <v>-18593</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J66" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
@@ -3471,40 +3471,40 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>7883</v>
+        <v>7396</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-4170</v>
+        <v>-16624</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J67" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J67" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
@@ -3516,40 +3516,40 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>7883</v>
+        <v>7598</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-4170</v>
+        <v>-16422</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J68" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J68" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K68" s="2" t="inlineStr">
@@ -3561,40 +3561,40 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>7883</v>
+        <v>7598</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-4170</v>
+        <v>-16422</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J69" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,27 +3606,27 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>8021</v>
+        <v>7598</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-4032</v>
+        <v>-16422</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>23</v>
@@ -3637,9 +3637,9 @@
       <c r="I70" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J70" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,40 +3651,40 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>8021</v>
+        <v>7940</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>12053</v>
+        <v>24020</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-4032</v>
+        <v>-16080</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
@@ -3696,7 +3696,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -3706,26 +3706,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>7318</v>
+        <v>7940</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>-16442</v>
+        <v>-16080</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J72" s="5" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>7318</v>
+        <v>8319</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>-16442</v>
+        <v>-15701</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>23</v>
@@ -3786,7 +3786,7 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -3796,17 +3796,17 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7318</v>
+        <v>8319</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>-16442</v>
+        <v>-15701</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>23</v>
@@ -3831,7 +3831,7 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -3841,26 +3841,26 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>7883</v>
+        <v>9534</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>-15877</v>
+        <v>-14486</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J75" s="5" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -3886,26 +3886,26 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>7883</v>
+        <v>9534</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-15877</v>
+        <v>-14486</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="J76" s="5" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -3931,26 +3931,26 @@
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>7883</v>
+        <v>10741</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>-15877</v>
+        <v>-13279</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J77" s="5" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -3976,26 +3976,26 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>8021</v>
+        <v>11305</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>-15739</v>
+        <v>-12715</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J78" s="5" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -4021,26 +4021,26 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>8021</v>
+        <v>13904</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-15739</v>
+        <v>-10116</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="J79" s="5" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4066,26 +4066,26 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>4509</v>
+        <v>15404</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-19251</v>
+        <v>-8616</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H80" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J80" s="5" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4111,26 +4111,26 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>5388</v>
+        <v>15404</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>-18372</v>
+        <v>-8616</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J81" s="5" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4156,26 +4156,26 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>6112</v>
+        <v>16126</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>-17648</v>
+        <v>-7894</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J82" s="5" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4201,26 +4201,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>6112</v>
+        <v>16126</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>-17648</v>
+        <v>-7894</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J83" s="5" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4250,22 +4250,22 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>7318</v>
+        <v>17163</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>23760</v>
+        <v>24020</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>-16442</v>
+        <v>-6857</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J84" s="5" t="inlineStr">
         <is>
@@ -4273,501 +4273,6 @@
         </is>
       </c>
       <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-693</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>7318</v>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>23760</v>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>-16442</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I85" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-695</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>7318</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>23760</v>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>-16442</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I86" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-380</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>7343</v>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>23760</v>
-      </c>
-      <c r="F87" s="2" t="n">
-        <v>-16417</v>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H87" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I87" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K87" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-677</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>8021</v>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>23760</v>
-      </c>
-      <c r="F88" s="2" t="n">
-        <v>-15739</v>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H88" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I88" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J88" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-639</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>8021</v>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>23760</v>
-      </c>
-      <c r="F89" s="2" t="n">
-        <v>-15739</v>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H89" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I89" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J89" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>03-MAY-26</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>SM-487</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-390</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>7883</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>8046</v>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>-163</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I90" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J90" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>03-MAY-26</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>SM-487</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-380</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>7883</v>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>8046</v>
-      </c>
-      <c r="F91" s="2" t="n">
-        <v>-163</v>
-      </c>
-      <c r="G91" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H91" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I91" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J91" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>03-MAY-26</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>SM-487</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-318</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>7883</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>8046</v>
-      </c>
-      <c r="F92" s="2" t="n">
-        <v>-163</v>
-      </c>
-      <c r="G92" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H92" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I92" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J92" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>SM-487</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-390</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>7883</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>8699</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>-816</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H93" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I93" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J93" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>SM-487</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-380</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>7883</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>8699</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>-816</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H94" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J94" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>31-MAY-26</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>SM-487</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-318</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>7883</v>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>8699</v>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>-816</v>
-      </c>
-      <c r="G95" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H95" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I95" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J95" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_ATZ_MED_threats.xlsx
+++ b/excel_routes/route_ATZ_MED_threats.xlsx
@@ -48,14 +48,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -560,26 +560,26 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8084</v>
+        <v>11000</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13228</v>
+        <v>14720</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-5144</v>
+        <v>-3720</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,28 +601,28 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8084</v>
+        <v>12726</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13228</v>
+        <v>14720</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-5144</v>
+        <v>-1994</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,28 +646,28 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8084</v>
+        <v>14595</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13228</v>
+        <v>14720</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-5144</v>
+        <v>-125</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,28 +691,28 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>9096</v>
+        <v>7363</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>13228</v>
+        <v>12111</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-4132</v>
+        <v>-4748</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,30 +736,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>10483</v>
+        <v>7613</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>13228</v>
+        <v>12111</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2745</v>
+        <v>-4498</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,28 +781,28 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>11874</v>
+        <v>9144</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>13228</v>
+        <v>12111</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1354</v>
+        <v>-2967</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,28 +826,28 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11874</v>
+        <v>9771</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>13228</v>
+        <v>12111</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1354</v>
+        <v>-2340</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -875,24 +875,24 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>11874</v>
+        <v>7332</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>13228</v>
+        <v>12111</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-1354</v>
+        <v>-4779</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,28 +916,28 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>10741</v>
+        <v>7558</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1437</v>
+        <v>-4553</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>10741</v>
+        <v>7639</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>13228</v>
+        <v>12111</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-2487</v>
+        <v>-4472</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>40</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,38 +996,38 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-489</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>10741</v>
+        <v>8241</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-1437</v>
+        <v>-3870</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,28 +1051,28 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5174</v>
+        <v>10649</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-7004</v>
+        <v>-1462</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,28 +1096,28 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5427</v>
+        <v>10744</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-6751</v>
+        <v>-1367</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1131,40 +1131,40 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8717</v>
+        <v>6234</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-3461</v>
+        <v>-5877</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>9223</v>
+        <v>6635</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-2955</v>
+        <v>-5476</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>40</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,27 +1221,27 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>Saudia SV-316</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>11874</v>
+        <v>7307</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-304</v>
+        <v>-4804</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>46</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,27 +1266,27 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>02-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>11874</v>
+        <v>7307</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-304</v>
+        <v>-4804</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>46</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>04-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1321,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>7325</v>
+        <v>7307</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-4853</v>
+        <v>-4804</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,27 +1356,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-489</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>10356</v>
+        <v>10506</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1822</v>
+        <v>-1605</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1387,7 +1387,7 @@
       <c r="I20" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>11305</v>
+        <v>3750</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-873</v>
+        <v>-8361</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>09-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,30 +1456,30 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>11305</v>
+        <v>3750</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-873</v>
+        <v>-8361</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,28 +1501,28 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>flynas XY-794</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>7325</v>
+        <v>4503</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-4853</v>
+        <v>-7608</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,28 +1546,28 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>7940</v>
+        <v>4503</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-4238</v>
+        <v>-7608</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>9167</v>
+        <v>7307</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-3011</v>
+        <v>-4804</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>46</v>
@@ -1612,7 +1612,7 @@
       <c r="I25" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-316</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>9407</v>
+        <v>7307</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2771</v>
+        <v>-4804</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>46</v>
@@ -1657,7 +1657,7 @@
       <c r="I26" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1681,28 +1681,28 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>3782</v>
+        <v>7307</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-8396</v>
+        <v>-4804</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1726,28 +1726,28 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>3782</v>
+        <v>7307</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-8396</v>
+        <v>-4804</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,28 +1771,28 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6945</v>
+        <v>4974</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-5233</v>
+        <v>-7137</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,28 +1816,28 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6945</v>
+        <v>4974</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5233</v>
+        <v>-7137</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,28 +1861,28 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7940</v>
+        <v>4974</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-4238</v>
+        <v>-7137</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="4" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,28 +1906,28 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-316</t>
+          <t>flyadeal F3-776</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>7940</v>
+        <v>6234</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-4238</v>
+        <v>-5877</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,28 +1951,28 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7940</v>
+        <v>6234</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-4238</v>
+        <v>-5877</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J33" s="4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,28 +1996,28 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7940</v>
+        <v>6635</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-4238</v>
+        <v>-5476</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J34" s="4" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,30 +2041,30 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-776</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3782</v>
+        <v>7545</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-8396</v>
+        <v>-4566</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J35" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,30 +2086,30 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>4162</v>
+        <v>7545</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-8016</v>
+        <v>-4566</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,30 +2131,30 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-794</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>6945</v>
+        <v>7545</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-5233</v>
+        <v>-4566</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J37" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,30 +2176,30 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6945</v>
+        <v>8260</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-5233</v>
+        <v>-3851</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="J38" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7598</v>
+        <v>8260</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>12178</v>
+        <v>12111</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-4580</v>
+        <v>-3851</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>23</v>
@@ -2242,7 +2242,7 @@
       <c r="I39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J39" s="3" t="inlineStr">
+      <c r="J39" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2256,40 +2256,40 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>7598</v>
+        <v>4001</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-4580</v>
+        <v>-19901</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>15</v>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2301,40 +2301,40 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>7598</v>
+        <v>4503</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-4580</v>
+        <v>-19399</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>10</v>
+      </c>
+      <c r="J41" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,12 +2346,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2360,13 +2360,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>7940</v>
+        <v>7307</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-4238</v>
+        <v>-16595</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>46</v>
@@ -2377,9 +2377,9 @@
       <c r="I42" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J42" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,12 +2391,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>7940</v>
+        <v>7307</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-4238</v>
+        <v>-16595</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>46</v>
@@ -2422,9 +2422,9 @@
       <c r="I43" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J43" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2450,13 +2450,13 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>7940</v>
+        <v>7307</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-4238</v>
+        <v>-16595</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>46</v>
@@ -2467,9 +2467,9 @@
       <c r="I44" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J44" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -2481,27 +2481,27 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>8319</v>
+        <v>7545</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-3859</v>
+        <v>-16357</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>23</v>
@@ -2512,9 +2512,9 @@
       <c r="I45" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,27 +2526,27 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>8319</v>
+        <v>7545</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-3859</v>
+        <v>-16357</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>23</v>
@@ -2557,9 +2557,9 @@
       <c r="I46" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -2571,27 +2571,27 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>7598</v>
+        <v>7545</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-4580</v>
+        <v>-16357</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>23</v>
@@ -2602,9 +2602,9 @@
       <c r="I47" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
@@ -2616,27 +2616,27 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>7598</v>
+        <v>8260</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-4580</v>
+        <v>-15642</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>23</v>
@@ -2647,9 +2647,9 @@
       <c r="I48" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
@@ -2661,27 +2661,27 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>7598</v>
+        <v>8260</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-4580</v>
+        <v>-15642</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>23</v>
@@ -2692,9 +2692,9 @@
       <c r="I49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
@@ -2706,40 +2706,40 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>7940</v>
+        <v>4974</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>-4238</v>
+        <v>-18928</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>7</v>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -2751,40 +2751,40 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>flyadeal F3-772</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>7940</v>
+        <v>6234</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>-4238</v>
+        <v>-17668</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
@@ -2796,40 +2796,40 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>flynas XY-575</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>7940</v>
+        <v>7262</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>-4238</v>
+        <v>-16640</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J52" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
@@ -2841,27 +2841,27 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>8319</v>
+        <v>7332</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>-3859</v>
+        <v>-16570</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>23</v>
@@ -2872,9 +2872,9 @@
       <c r="I53" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
@@ -2886,27 +2886,27 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>SM-487</t>
+          <t>SM-963</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>8319</v>
+        <v>7332</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>12178</v>
+        <v>23902</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>-3859</v>
+        <v>-16570</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>23</v>
@@ -2917,9 +2917,9 @@
       <c r="I54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2941,26 +2941,26 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-675</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>4542</v>
+        <v>7545</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>-19478</v>
+        <v>-16357</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J55" s="5" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -2986,26 +2986,26 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>5427</v>
+        <v>7545</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>-18593</v>
+        <v>-16357</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J56" s="5" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-390</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6156</v>
+        <v>7545</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>-17864</v>
+        <v>-16357</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>23</v>
@@ -3066,7 +3066,7 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -3076,17 +3076,17 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>6156</v>
+        <v>8260</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-17864</v>
+        <v>-15642</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>23</v>
@@ -3111,7 +3111,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -3121,17 +3121,17 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-318</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>7396</v>
+        <v>8260</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>-16624</v>
+        <v>-15642</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>23</v>
@@ -3156,40 +3156,40 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-675</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>7598</v>
+        <v>7307</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>24020</v>
+        <v>7420</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>-16422</v>
+        <v>-113</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -3211,26 +3211,26 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>7598</v>
+        <v>12626</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>-16422</v>
+        <v>-11276</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J61" s="5" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>7598</v>
+        <v>12626</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-16422</v>
+        <v>-11276</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J62" s="5" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -3301,26 +3301,26 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-677</t>
+          <t>Saudia SV-318</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>8319</v>
+        <v>12626</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-15701</v>
+        <v>-11276</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J63" s="5" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -3346,26 +3346,26 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-639</t>
+          <t>EgyptAir MS-693</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>8319</v>
+        <v>15310</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>-15701</v>
+        <v>-8592</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J64" s="5" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -3391,26 +3391,26 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-575</t>
+          <t>EgyptAir MS-695</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>4921</v>
+        <v>15310</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>-19099</v>
+        <v>-8592</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="J65" s="5" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -3436,26 +3436,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-772</t>
+          <t>EgyptAir MS-677</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>5427</v>
+        <v>16025</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-18593</v>
+        <v>-7877</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J66" s="5" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -3481,26 +3481,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-380</t>
+          <t>EgyptAir MS-639</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>7396</v>
+        <v>16025</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-16624</v>
+        <v>-7877</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J67" s="5" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -3530,22 +3530,22 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>7598</v>
+        <v>17066</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>24020</v>
+        <v>23902</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-16422</v>
+        <v>-6836</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="J68" s="5" t="inlineStr">
         <is>
@@ -3561,40 +3561,40 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>03-MAY-26</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-693</t>
+          <t>Saudia SV-390</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>7598</v>
+        <v>7307</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>24020</v>
+        <v>8072</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>-16422</v>
+        <v>-765</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3606,40 +3606,40 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>03-MAY-26</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-695</t>
+          <t>Saudia SV-380</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>7598</v>
+        <v>7307</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>24020</v>
+        <v>8072</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>-16422</v>
+        <v>-765</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J70" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
@@ -3651,12 +3651,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>03-MAY-26</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>SM-963</t>
+          <t>SM-487</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>7940</v>
+        <v>7307</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>24020</v>
+        <v>8072</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>-16080</v>
+        <v>-765</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>46</v>
@@ -3682,597 +3682,12 @@
       <c r="I71" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J71" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-390</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>7940</v>
-      </c>
-      <c r="E72" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>-16080</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H72" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I72" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J72" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-677</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>8319</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F73" s="2" t="n">
-        <v>-15701</v>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H73" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I73" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-639</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>8319</v>
-      </c>
-      <c r="E74" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>-15701</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-390</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>9534</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>-14486</v>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I75" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-318</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>9534</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F76" s="2" t="n">
-        <v>-14486</v>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I76" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K76" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>flyadeal F3-772</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>10741</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F77" s="2" t="n">
-        <v>-13279</v>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I77" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J77" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>Saudia SV-380</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>11305</v>
-      </c>
-      <c r="E78" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>-12715</v>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H78" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I78" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J78" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-575</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>13904</v>
-      </c>
-      <c r="E79" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>-10116</v>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H79" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I79" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J79" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-693</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>15404</v>
-      </c>
-      <c r="E80" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F80" s="2" t="n">
-        <v>-8616</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I80" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J80" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-695</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>15404</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>-8616</v>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H81" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I81" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J81" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-677</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>16126</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F82" s="2" t="n">
-        <v>-7894</v>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H82" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I82" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J82" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-639</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>16126</v>
-      </c>
-      <c r="E83" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>-7894</v>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I83" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J83" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>SM-963</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-675</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>17163</v>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>24020</v>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>-6857</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I84" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J84" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_ATZ_MED_threats.xlsx
+++ b/excel_routes/route_ATZ_MED_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465BDF9-F4DB-4C18-8DAB-CEBB74C880B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB1496-B3C2-4CE9-BEAA-FE67D226722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -60,25 +60,67 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>07-FEB-26</t>
+    <t>14-FEB-26</t>
   </si>
   <si>
     <t>SM-487</t>
   </si>
   <si>
+    <t>flyadeal F3-776</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
     <t>EgyptAir MS-675</t>
   </si>
   <si>
     <t>LOW THREAT</t>
   </si>
   <si>
-    <t>EGP</t>
-  </si>
-  <si>
     <t>EgyptAir MS-677</t>
   </si>
   <si>
-    <t>10-FEB-26</t>
+    <t>02-MAR-26</t>
+  </si>
+  <si>
+    <t>flyadeal F3-772</t>
+  </si>
+  <si>
+    <t>flynas XY-794</t>
+  </si>
+  <si>
+    <t>flynas XY-575</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>Saudia SV-380</t>
+  </si>
+  <si>
+    <t>Saudia SV-390</t>
+  </si>
+  <si>
+    <t>Saudia SV-318</t>
+  </si>
+  <si>
+    <t>11-MAR-26</t>
+  </si>
+  <si>
+    <t>SM-489</t>
+  </si>
+  <si>
+    <t>Saudia SV-316</t>
+  </si>
+  <si>
+    <t>14-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
   </si>
   <si>
     <t>EgyptAir MS-693</t>
@@ -87,25 +129,28 @@
     <t>EgyptAir MS-695</t>
   </si>
   <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>28-FEB-26</t>
-  </si>
-  <si>
-    <t>flynas XY-575</t>
-  </si>
-  <si>
-    <t>flynas XY-794</t>
-  </si>
-  <si>
-    <t>flyadeal F3-776</t>
-  </si>
-  <si>
-    <t>flyadeal F3-772</t>
-  </si>
-  <si>
-    <t>02-MAR-26</t>
+    <t>EgyptAir MS-639</t>
+  </si>
+  <si>
+    <t>20-MAR-26</t>
+  </si>
+  <si>
+    <t>SM-963</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>22-MAR-26</t>
+  </si>
+  <si>
+    <t>23-MAR-26</t>
+  </si>
+  <si>
+    <t>27-MAR-26</t>
+  </si>
+  <si>
+    <t>03-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -132,7 +177,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +192,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +245,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +556,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +570,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,22 +620,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>7965</v>
+        <v>11000</v>
       </c>
       <c r="E2" s="2">
-        <v>9373</v>
+        <v>14720</v>
       </c>
       <c r="F2" s="2">
-        <v>-1408</v>
+        <v>-3720</v>
       </c>
       <c r="G2" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -592,13 +655,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>8682</v>
+        <v>12726</v>
       </c>
       <c r="E3" s="2">
-        <v>9373</v>
+        <v>14720</v>
       </c>
       <c r="F3" s="2">
-        <v>-691</v>
+        <v>-1994</v>
       </c>
       <c r="G3" s="2">
         <v>46</v>
@@ -609,8 +672,8 @@
       <c r="I3" s="2">
         <v>-16</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
@@ -618,22 +681,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>9574</v>
+        <v>14595</v>
       </c>
       <c r="E4" s="2">
-        <v>10027</v>
+        <v>14720</v>
       </c>
       <c r="F4" s="2">
-        <v>-453</v>
+        <v>-125</v>
       </c>
       <c r="G4" s="2">
         <v>46</v>
@@ -644,8 +707,8 @@
       <c r="I4" s="2">
         <v>-16</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -653,34 +716,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7363</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-4748</v>
+      </c>
+      <c r="G5" s="2">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9574</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10027</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-453</v>
-      </c>
-      <c r="G5" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -688,34 +751,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7613</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-4498</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9574</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10027</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-453</v>
-      </c>
-      <c r="G6" s="2">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -723,34 +786,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
-        <v>12340</v>
+        <v>9144</v>
       </c>
       <c r="E7" s="2">
-        <v>14704</v>
+        <v>12111</v>
       </c>
       <c r="F7" s="2">
-        <v>-2364</v>
+        <v>-2967</v>
       </c>
       <c r="G7" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -758,7 +821,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -767,25 +830,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="2">
-        <v>6273</v>
+        <v>9771</v>
       </c>
       <c r="E8" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F8" s="2">
-        <v>-5828</v>
+        <v>-2340</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -793,34 +856,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7332</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-4779</v>
+      </c>
+      <c r="G9" s="2">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
-        <v>6776</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12101</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-5325</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -828,34 +891,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>8222</v>
+        <v>7558</v>
       </c>
       <c r="E10" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F10" s="2">
-        <v>-3879</v>
+        <v>-4553</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -863,31 +926,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>8222</v>
+        <v>7639</v>
       </c>
       <c r="E11" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F11" s="2">
-        <v>-3879</v>
+        <v>-4472</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
@@ -898,22 +961,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>8222</v>
+        <v>8241</v>
       </c>
       <c r="E12" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F12" s="2">
-        <v>-3879</v>
+        <v>-3870</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -924,8 +987,8 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -933,34 +996,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>8222</v>
+        <v>10649</v>
       </c>
       <c r="E13" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F13" s="2">
-        <v>-3879</v>
+        <v>-1462</v>
       </c>
       <c r="G13" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>-10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -968,34 +1031,34 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" s="2">
-        <v>9793</v>
+        <v>10744</v>
       </c>
       <c r="E14" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F14" s="2">
-        <v>-2308</v>
+        <v>-1367</v>
       </c>
       <c r="G14" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>-10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>-16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1003,36 +1066,1996 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
-        <v>9793</v>
+        <v>6234</v>
       </c>
       <c r="E15" s="2">
-        <v>12101</v>
+        <v>12111</v>
       </c>
       <c r="F15" s="2">
-        <v>-2308</v>
+        <v>-5877</v>
       </c>
       <c r="G15" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2">
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6635</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-5476</v>
+      </c>
+      <c r="G16" s="2">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E18" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G18" s="2">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E19" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G19" s="2">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10506</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1605</v>
+      </c>
+      <c r="G20" s="2">
+        <v>46</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E21" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-8361</v>
+      </c>
+      <c r="G21" s="2">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-8361</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4503</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-7608</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4503</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-7608</v>
+      </c>
+      <c r="G24" s="2">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E25" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G25" s="2">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G26" s="2">
+        <v>46</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G27" s="2">
+        <v>46</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-4804</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4974</v>
+      </c>
+      <c r="E29" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-7137</v>
+      </c>
+      <c r="G29" s="2">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4974</v>
+      </c>
+      <c r="E30" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-7137</v>
+      </c>
+      <c r="G30" s="2">
+        <v>23</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4974</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-7137</v>
+      </c>
+      <c r="G31" s="2">
+        <v>23</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>7</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-5877</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-5877</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6635</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-5476</v>
+      </c>
+      <c r="G34" s="2">
+        <v>40</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E35" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-4566</v>
+      </c>
+      <c r="G35" s="2">
+        <v>23</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>7</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-4566</v>
+      </c>
+      <c r="G36" s="2">
+        <v>23</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E37" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-4566</v>
+      </c>
+      <c r="G37" s="2">
+        <v>23</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8260</v>
+      </c>
+      <c r="E38" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-3851</v>
+      </c>
+      <c r="G38" s="2">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2">
+        <v>7</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8260</v>
+      </c>
+      <c r="E39" s="2">
+        <v>12111</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-3851</v>
+      </c>
+      <c r="G39" s="2">
+        <v>23</v>
+      </c>
+      <c r="H39" s="2">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4001</v>
+      </c>
+      <c r="E40" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-19901</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>15</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4503</v>
+      </c>
+      <c r="E41" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-19399</v>
+      </c>
+      <c r="G41" s="2">
+        <v>20</v>
+      </c>
+      <c r="H41" s="2">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>10</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E42" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-16595</v>
+      </c>
+      <c r="G42" s="2">
+        <v>46</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E43" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-16595</v>
+      </c>
+      <c r="G43" s="2">
+        <v>46</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E44" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-16595</v>
+      </c>
+      <c r="G44" s="2">
+        <v>46</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E45" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-16357</v>
+      </c>
+      <c r="G45" s="2">
+        <v>23</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E46" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-16357</v>
+      </c>
+      <c r="G46" s="2">
+        <v>23</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E47" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-16357</v>
+      </c>
+      <c r="G47" s="2">
+        <v>23</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8260</v>
+      </c>
+      <c r="E48" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-15642</v>
+      </c>
+      <c r="G48" s="2">
+        <v>23</v>
+      </c>
+      <c r="H48" s="2">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2">
+        <v>7</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8260</v>
+      </c>
+      <c r="E49" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-15642</v>
+      </c>
+      <c r="G49" s="2">
+        <v>23</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2">
+        <v>7</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4974</v>
+      </c>
+      <c r="E50" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-18928</v>
+      </c>
+      <c r="G50" s="2">
+        <v>23</v>
+      </c>
+      <c r="H50" s="2">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2">
+        <v>7</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2">
+        <v>6234</v>
+      </c>
+      <c r="E51" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-17668</v>
+      </c>
+      <c r="G51" s="2">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7262</v>
+      </c>
+      <c r="E52" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-16640</v>
+      </c>
+      <c r="G52" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" s="2">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7332</v>
+      </c>
+      <c r="E53" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-16570</v>
+      </c>
+      <c r="G53" s="2">
+        <v>23</v>
+      </c>
+      <c r="H53" s="2">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2">
+        <v>7</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2">
+        <v>7332</v>
+      </c>
+      <c r="E54" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-16570</v>
+      </c>
+      <c r="G54" s="2">
+        <v>23</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2">
+        <v>7</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E55" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-16357</v>
+      </c>
+      <c r="G55" s="2">
+        <v>23</v>
+      </c>
+      <c r="H55" s="2">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2">
+        <v>7</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E56" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F56" s="2">
+        <v>-16357</v>
+      </c>
+      <c r="G56" s="2">
+        <v>23</v>
+      </c>
+      <c r="H56" s="2">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2">
+        <v>7</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7545</v>
+      </c>
+      <c r="E57" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-16357</v>
+      </c>
+      <c r="G57" s="2">
+        <v>23</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <v>7</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8260</v>
+      </c>
+      <c r="E58" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-15642</v>
+      </c>
+      <c r="G58" s="2">
+        <v>23</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2">
+        <v>7</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="2">
+        <v>8260</v>
+      </c>
+      <c r="E59" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-15642</v>
+      </c>
+      <c r="G59" s="2">
+        <v>23</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2">
+        <v>7</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E60" s="2">
+        <v>7420</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-113</v>
+      </c>
+      <c r="G60" s="2">
+        <v>46</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2">
+        <v>12626</v>
+      </c>
+      <c r="E61" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F61" s="2">
+        <v>-11276</v>
+      </c>
+      <c r="G61" s="2">
+        <v>46</v>
+      </c>
+      <c r="H61" s="2">
+        <v>30</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="2">
+        <v>12626</v>
+      </c>
+      <c r="E62" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F62" s="2">
+        <v>-11276</v>
+      </c>
+      <c r="G62" s="2">
+        <v>46</v>
+      </c>
+      <c r="H62" s="2">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2">
+        <v>12626</v>
+      </c>
+      <c r="E63" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F63" s="2">
+        <v>-11276</v>
+      </c>
+      <c r="G63" s="2">
+        <v>46</v>
+      </c>
+      <c r="H63" s="2">
+        <v>30</v>
+      </c>
+      <c r="I63" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="2">
+        <v>15310</v>
+      </c>
+      <c r="E64" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F64" s="2">
+        <v>-8592</v>
+      </c>
+      <c r="G64" s="2">
+        <v>46</v>
+      </c>
+      <c r="H64" s="2">
+        <v>30</v>
+      </c>
+      <c r="I64" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2">
+        <v>15310</v>
+      </c>
+      <c r="E65" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-8592</v>
+      </c>
+      <c r="G65" s="2">
+        <v>46</v>
+      </c>
+      <c r="H65" s="2">
+        <v>30</v>
+      </c>
+      <c r="I65" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="2">
+        <v>16025</v>
+      </c>
+      <c r="E66" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F66" s="2">
+        <v>-7877</v>
+      </c>
+      <c r="G66" s="2">
+        <v>46</v>
+      </c>
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="2">
+        <v>16025</v>
+      </c>
+      <c r="E67" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F67" s="2">
+        <v>-7877</v>
+      </c>
+      <c r="G67" s="2">
+        <v>46</v>
+      </c>
+      <c r="H67" s="2">
+        <v>30</v>
+      </c>
+      <c r="I67" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2">
+        <v>17066</v>
+      </c>
+      <c r="E68" s="2">
+        <v>23902</v>
+      </c>
+      <c r="F68" s="2">
+        <v>-6836</v>
+      </c>
+      <c r="G68" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" s="2">
+        <v>30</v>
+      </c>
+      <c r="I68" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E69" s="2">
+        <v>8072</v>
+      </c>
+      <c r="F69" s="2">
+        <v>-765</v>
+      </c>
+      <c r="G69" s="2">
+        <v>46</v>
+      </c>
+      <c r="H69" s="2">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8072</v>
+      </c>
+      <c r="F70" s="2">
+        <v>-765</v>
+      </c>
+      <c r="G70" s="2">
+        <v>46</v>
+      </c>
+      <c r="H70" s="2">
+        <v>30</v>
+      </c>
+      <c r="I70" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="2">
+        <v>7307</v>
+      </c>
+      <c r="E71" s="2">
+        <v>8072</v>
+      </c>
+      <c r="F71" s="2">
+        <v>-765</v>
+      </c>
+      <c r="G71" s="2">
+        <v>46</v>
+      </c>
+      <c r="H71" s="2">
+        <v>30</v>
+      </c>
+      <c r="I71" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>15</v>
       </c>
     </row>
